--- a/PnL_Test.xlsx
+++ b/PnL_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nn\Projekte\StructuredAICommentGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C249D131-4284-4D55-84AC-F6BB4750FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F38F67-A483-48F6-88FF-A1DDF929E76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{43B701F8-A2AB-4EF0-9306-2C8AA778621E}"/>
+    <workbookView xWindow="20" yWindow="180" windowWidth="19180" windowHeight="10080" xr2:uid="{43B701F8-A2AB-4EF0-9306-2C8AA778621E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -95,10 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -433,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3638D3-7CC8-46BF-AB71-B056EC0F38A8}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -471,7 +470,7 @@
       <c r="C2" s="1">
         <v>45658</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>2025</v>
       </c>
       <c r="E2">
@@ -481,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -489,13 +488,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45659</v>
-      </c>
-      <c r="D3" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -509,16 +508,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>45660</v>
-      </c>
-      <c r="D4" s="2">
+        <v>45659</v>
+      </c>
+      <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4">
-        <v>-12003</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -529,15 +528,35 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
+        <v>45660</v>
+      </c>
+      <c r="D5">
+        <v>2025</v>
+      </c>
+      <c r="E5">
+        <v>-12003</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>45661</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6">
         <v>2025</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>123</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-5</v>
       </c>
     </row>

--- a/PnL_Test.xlsx
+++ b/PnL_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nn\Projekte\StructuredAICommentGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F38F67-A483-48F6-88FF-A1DDF929E76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630F5328-5AD8-41DF-B54B-10BF620A2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="180" windowWidth="19180" windowHeight="10080" xr2:uid="{43B701F8-A2AB-4EF0-9306-2C8AA778621E}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{43B701F8-A2AB-4EF0-9306-2C8AA778621E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -60,16 +60,49 @@
   </si>
   <si>
     <t>Hedgeyear</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3638D3-7CC8-46BF-AB71-B056EC0F38A8}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +593,188 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45662</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
+      </c>
+      <c r="E7">
+        <v>-123</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+      <c r="E8">
+        <v>123</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45664</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
+      </c>
+      <c r="E9">
+        <v>123</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45665</v>
+      </c>
+      <c r="D10">
+        <v>2025</v>
+      </c>
+      <c r="E10">
+        <v>123</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45666</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
+      </c>
+      <c r="E11">
+        <v>123</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45667</v>
+      </c>
+      <c r="D12">
+        <v>2025</v>
+      </c>
+      <c r="E12">
+        <v>123</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45668</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+      <c r="E13">
+        <v>123</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D14">
+        <v>2025</v>
+      </c>
+      <c r="E14">
+        <v>123</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45670</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
+      </c>
+      <c r="E15">
+        <v>123</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PnL_Test.xlsx
+++ b/PnL_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nn\Projekte\StructuredAICommentGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630F5328-5AD8-41DF-B54B-10BF620A2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC40DB7B-A0E4-4E6D-A4FD-51DC9B886D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{43B701F8-A2AB-4EF0-9306-2C8AA778621E}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>S1</t>
   </si>
   <si>
-    <t xml:space="preserve">Business Unit Intern </t>
-  </si>
-  <si>
     <t>Busines Unit Extern</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>S10</t>
+  </si>
+  <si>
+    <t>Business Unit Intern</t>
   </si>
 </sst>
 </file>
@@ -468,23 +468,23 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>45658</v>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>45658</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>45659</v>
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>45660</v>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>45661</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>45662</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>45663</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>45664</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>45665</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>45666</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>45667</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>45668</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>45669</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>45670</v>
